--- a/Inventory CSVs/Current Data/HydraulicInventorySheetJan2025.xlsx
+++ b/Inventory CSVs/Current Data/HydraulicInventorySheetJan2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.0.1.6\Engineering\Rigs\HAZL\HAZL BOP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Exlterra CAD 02\Documents\GitHub\pjbrich.github.io\Inventory CSVs\Current Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF3ED12-482D-457E-8422-610907CA9256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3F1A11-6D07-422D-9F89-C8B98C7DE116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32535" yWindow="1770" windowWidth="27780" windowHeight="6630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -5852,8 +5852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1012"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B307" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L308" sqref="L308"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B358" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8486,7 +8486,7 @@
         <v>12</v>
       </c>
       <c r="D58" s="22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E58" s="21" t="s">
         <v>87</v>
@@ -8494,9 +8494,7 @@
       <c r="F58" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="22">
-        <v>20</v>
-      </c>
+      <c r="G58" s="22"/>
       <c r="H58" s="25" t="s">
         <v>56</v>
       </c>
@@ -8509,7 +8507,9 @@
       <c r="K58" s="40">
         <v>4.4800000000000004</v>
       </c>
-      <c r="L58" s="22"/>
+      <c r="L58" s="22">
+        <v>4</v>
+      </c>
       <c r="M58" s="22"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
